--- a/data/raw/aggregators/Mitchell/Asia_CPI.xlsx
+++ b/data/raw/aggregators/Mitchell/Asia_CPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lehbib\Documents\GitHub\Global-Macro-Project\data\raw\aggregators\MITCHELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2F7592-F4F1-40CD-AD9A-4B27552FF81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5572DA-FDFB-4264-BB95-A4FB35383CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2122,7 +2122,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -36805,7 +36807,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -40518,7 +40522,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
@@ -46011,8 +46015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38BE313-0399-4DC9-9D34-B5A852EBFB22}">
   <dimension ref="A1:BE5"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AZ6" sqref="AZ6"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="BE2" sqref="BE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46192,7 +46196,7 @@
         <v>1937</v>
       </c>
       <c r="BE2">
-        <v>1937</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
